--- a/Tablas/AFIP.xlsx
+++ b/Tablas/AFIP.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,781 +471,736 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Eukanuba Razas Pequeñas x 3 kg.</t>
+          <t>Cepillo Doble Mediano</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>22850</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Old Prince Gatitos x 7,5 kg.</t>
+          <t>Bolso Cartera Impermeable T° 4</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>35400</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Vital Cat Therapy Gastrointestinal x 2 kg.</t>
+          <t>Cepillo Kitty</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>28380</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Old Prince Cordero Cachorro x 15 kg.</t>
+          <t>Profesional Vet Cachorro Razas Pequeñas x 15 kg.</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>74350</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Eukanuba Razas Pequeñas x 3 kg.</t>
+          <t>Abrigo Polar Animado N° 7</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>22800</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Colchoneta N° 1 - 50 x 50</t>
+          <t>Eukanuba Cachorro Razas Medianas x 3 kg.</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>10500</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Royal Canin Mini</t>
+          <t>Nutricare x 20 kg.</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>10750</v>
+        <v>36400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Huellitas N° 11</t>
+          <t>Correa x 10 mts.</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>6900</v>
+        <v>9020</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Bravecto Comprimidos 10-20 kg.</t>
+          <t>Performance x 20 kg.</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>51100</v>
+        <v>87340</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Arandela Goma Mediana</t>
+          <t>Alpiste</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Huellitas N° 5</t>
+          <t>Maiz Entero x 24 kg.</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>3800</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>14/09/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Buzo Abercrombie N° 3</t>
+          <t>Alpiste</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>5900</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>14/09/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Fantasia N° 7</t>
+          <t>Alguicida Nataclor x 1 lt.</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>5300</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>14/09/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Poleritas N° 4</t>
+          <t>Abrigo Fantasia N° 3</t>
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v>13000</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>14/09/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Dog Chow x 8 kg.</t>
+          <t>Alguicida Clorotec x 1 lt.</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>25600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>14/09/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Alcohol Etilico San Iginio 500 cc.</t>
+          <t>Bolso Cartera Impermeable T° 4</t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>1300</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>14/09/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Bozal Lazo Cuero Ocho N° 3</t>
+          <t>Profesional Vet Gato x 8 kg.</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>7100</v>
+        <v>33330</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>14/09/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Bolso Oval</t>
+          <t>Mamboreta K x 30 cc.</t>
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>22500</v>
+        <v>15290</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>14/09/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Antihumedad Aire Puro Mini</t>
+          <t>Abrigo Poleritas N° 4</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>2600</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Maiz Entero x 24 kg.</t>
+          <t>Abrigo Liso N° 1</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
-        <v>11700</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Cepillo Doble Mediano</t>
+          <t>DogPro Razas Pequeñas x 8 kg.</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>3150</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Eukanuba Cachorro Razas Medianas x 3 kg.</t>
+          <t>Cepillo Doble Mediano</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>23000</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Alpiste</t>
+          <t>Abrigo Polar Animado N° 1</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>2100</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Performance x 20 kg.</t>
+          <t>Buzo Abercrombie N° 3</t>
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>87340</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Correa x 10 mts.</t>
+          <t>Buzo Abercrombie N° 3</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
-        <v>9020</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Nutricare x 20 kg.</t>
+          <t>Balde Escurridor x 14 lts.</t>
         </is>
       </c>
       <c r="C27" s="3" t="n">
-        <v>36400</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Polar Animado N° 7</t>
+          <t>Aca No Aerosol x 440 cc.</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
-        <v>6700</v>
+        <v>15050</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Cepillo Kitty</t>
+          <t>Girasol Confitero x 20 kg.</t>
         </is>
       </c>
       <c r="C29" s="3" t="n">
-        <v>10400</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Bolso Cartera Impermeable T° 4</t>
+          <t>Camperita Frisa Gap T° 1</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>12900</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Profesional Vet Cachorro Razas Pequeñas x 15 kg.</t>
+          <t>Antiparasitario Vermican Gotas</t>
         </is>
       </c>
       <c r="C31" s="3" t="n">
-        <v>46200</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Alpiste</t>
+          <t>Paños Absorbentes Golden Breeze x 30 u.</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
-        <v>2100</v>
+        <v>11220</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Fantasia N° 3</t>
+          <t>Abrigo Polar Soft Fantasia Nº 1</t>
         </is>
       </c>
       <c r="C33" s="3" t="n">
-        <v>3900</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Alguicida Clorotec x 1 lt.</t>
+          <t>Buzo Abercrombie N° 3</t>
         </is>
       </c>
       <c r="C34" s="3" t="n">
-        <v>9900</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>18/09/2025</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Bolso Cartera Impermeable T° 4</t>
+          <t>Abrigo Matelasse N° 12</t>
         </is>
       </c>
       <c r="C35" s="3" t="n">
-        <v>12900</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>18/09/2025</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Cepillo Doble Mediano</t>
+          <t>Abrigo Matelasse N° 12</t>
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>3150</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>18/09/2025</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Alguicida Nataclor x 1 lt.</t>
+          <t>Antihumedad Aire Puro Mini</t>
         </is>
       </c>
       <c r="C37" s="3" t="n">
-        <v>7500</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>18/09/2025</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Profesional Vet Gato x 8 kg.</t>
+          <t>Dr. Perrot x 15 kg.</t>
         </is>
       </c>
       <c r="C38" s="3" t="n">
-        <v>33330</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>18/09/2025</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Poleritas N° 4</t>
+          <t>Girasol Confitero x 20 kg.</t>
         </is>
       </c>
       <c r="C39" s="3" t="n">
-        <v>13000</v>
+        <v>15900</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>18/09/2025</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Liso N° 1</t>
+          <t>Royal Canin Hepatic x 1,5 kg.</t>
         </is>
       </c>
       <c r="C40" s="3" t="n">
-        <v>2000</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>18/09/2025</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Polar Animado N° 1</t>
+          <t>Cadena Atar N.º 17</t>
         </is>
       </c>
       <c r="C41" s="3" t="n">
-        <v>4400</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>18/09/2025</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>DogPro Razas Pequeñas x 8 kg.</t>
+          <t>Alfombras Paños Max</t>
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>31500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>18/09/2025</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Mamboreta K x 30 cc.</t>
+          <t>Maiz Roto Fino x 24 kg.</t>
         </is>
       </c>
       <c r="C43" s="3" t="n">
-        <v>15290</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>18/09/2025</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Buzo Abercrombie N° 3</t>
+          <t>Abrigo Fantasia N° 5</t>
         </is>
       </c>
       <c r="C44" s="3" t="n">
-        <v>5900</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>18/09/2025</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Buzo Abercrombie N° 3</t>
+          <t>Nutribon Razas Pequeñas x 20 kg.</t>
         </is>
       </c>
       <c r="C45" s="3" t="n">
-        <v>5900</v>
+        <v>33900</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>18/09/2025</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Buzo Abercrombie N° 3</t>
+          <t>Comedero Metal N° 4 - 30 cm.</t>
         </is>
       </c>
       <c r="C46" s="3" t="n">
-        <v>5900</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>18/09/2025</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Balde Escurridor x 14 lts.</t>
+          <t>Collar Cuero N° 6</t>
         </is>
       </c>
       <c r="C47" s="3" t="n">
-        <v>8300</v>
+        <v>13700</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>19/09/2025</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Aca No Aerosol x 440 cc.</t>
+          <t>Antiparasitario Vermican Gotas</t>
         </is>
       </c>
       <c r="C48" s="3" t="n">
-        <v>15050</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>19/09/2025</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Girasol Confitero x 20 kg.</t>
+          <t>Antiparasitario Vermican Gotas</t>
         </is>
       </c>
       <c r="C49" s="3" t="n">
-        <v>15800</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>19/09/2025</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Camperita Frisa Gap T° 1</t>
+          <t>Abrigo Poleritas N° 4</t>
         </is>
       </c>
       <c r="C50" s="3" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>Antiparasitario Vermican Gotas</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="4" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>Paños Absorbentes Golden Breeze x 30 u.</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="n">
-        <v>11220</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="4" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Abrigo Polar Soft Fantasia Nº 1</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="n">
-        <v>3000</v>
+        <v>13090</v>
       </c>
     </row>
   </sheetData>

--- a/Tablas/AFIP.xlsx
+++ b/Tablas/AFIP.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,736 +471,466 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>08/11/2025</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Cepillo Doble Mediano</t>
+          <t>Abrigo Fantasia N° 3</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>3150</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>08/11/2025</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Bolso Cartera Impermeable T° 4</t>
+          <t>Profesional Vet Gato x 8 kg.</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>12900</v>
+        <v>33500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>08/11/2025</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Cepillo Kitty</t>
+          <t>Balde Centrifugo Double</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>10400</v>
+        <v>23900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>08/11/2025</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Profesional Vet Cachorro Razas Pequeñas x 15 kg.</t>
+          <t>Correa x 10 mts.</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>46200</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>08/11/2025</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Polar Animado N° 7</t>
+          <t>Aguarras x 1 lt.</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>6700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>08/11/2025</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Eukanuba Cachorro Razas Medianas x 3 kg.</t>
+          <t>Old Prince Premium Gato x 7,5 kg.</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>23000</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>08/11/2025</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Nutricare x 20 kg.</t>
+          <t>Abrigo Poleritas N° 4</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>36400</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>08/11/2025</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Correa x 10 mts.</t>
+          <t>Abrigo Huellitas N° 9</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>9020</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>08/11/2025</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Performance x 20 kg.</t>
+          <t>Abrigo Polar Soft Liso N° 10</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>87340</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>08/11/2025</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Alpiste</t>
+          <t>Infinity Gato x 10 kg.</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>2100</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>08/11/2025</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Maiz Entero x 24 kg.</t>
+          <t>Patriota Gato x 15 kg.</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>11700</v>
+        <v>24100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Alpiste</t>
+          <t>Royal Canin Mini Puppy x 3 kg.</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>2100</v>
+        <v>37700</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Alguicida Nataclor x 1 lt.</t>
+          <t>Sabrositos Cachorro x 18 kg.</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>7500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Fantasia N° 3</t>
+          <t>Agility</t>
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v>3900</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Alguicida Clorotec x 1 lt.</t>
+          <t>Dr. Dippi x 20 kg.</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>9900</v>
+        <v>29260</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Bolso Cartera Impermeable T° 4</t>
+          <t>Curabichera Mustad Plata x 440 cc.</t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>12900</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Profesional Vet Gato x 8 kg.</t>
+          <t>Abrigo Matelasse N° 3</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>33330</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Mamboreta K x 30 cc.</t>
+          <t>Abrigo Polar Animado N° 1</t>
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>15290</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Poleritas N° 4</t>
+          <t>Comedero Metal N° 4 - 30 cm.</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>13000</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Liso N° 1</t>
+          <t>Bozal Cuero N° 1</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
-        <v>2000</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>DogPro Razas Pequeñas x 8 kg.</t>
+          <t>Old Prince Gatitos x 7,5 kg.</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>31500</v>
+        <v>35400</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Cepillo Doble Mediano</t>
+          <t>Abrigo Liso N° 0</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>3150</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Polar Animado N° 1</t>
+          <t>Collar Cuero N° 7</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>4400</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Buzo Abercrombie N° 3</t>
+          <t>DogPro Cachorro x 8 kg.</t>
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>5900</v>
+        <v>30690</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Buzo Abercrombie N° 3</t>
+          <t>Abrigo Matelasse N° 5</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
-        <v>5900</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Balde Escurridor x 14 lts.</t>
+          <t>Abrigo Polar Soft Fantasia Nº 1</t>
         </is>
       </c>
       <c r="C27" s="3" t="n">
-        <v>8300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Aca No Aerosol x 440 cc.</t>
+          <t>Alfombras Paños Max</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
-        <v>15050</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Girasol Confitero x 20 kg.</t>
+          <t>Abrigo Fantasia N° 8</t>
         </is>
       </c>
       <c r="C29" s="3" t="n">
-        <v>15800</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Camperita Frisa Gap T° 1</t>
+          <t>Pro Plan Cachorro Razas Pequeñas x 3 kg.</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>5000</v>
+        <v>40800</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Antiparasitario Vermican Gotas</t>
+          <t>Aca No Aerosol x 440 cc.</t>
         </is>
       </c>
       <c r="C31" s="3" t="n">
-        <v>2200</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Paños Absorbentes Golden Breeze x 30 u.</t>
+          <t>CatPro Urinary x 15 kg.</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
-        <v>11220</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Abrigo Polar Soft Fantasia Nº 1</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>Buzo Abercrombie N° 3</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="inlineStr">
-        <is>
-          <t>18/09/2025</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>Abrigo Matelasse N° 12</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="inlineStr">
-        <is>
-          <t>18/09/2025</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Abrigo Matelasse N° 12</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="inlineStr">
-        <is>
-          <t>18/09/2025</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Antihumedad Aire Puro Mini</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="inlineStr">
-        <is>
-          <t>18/09/2025</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>Dr. Perrot x 15 kg.</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="n">
-        <v>16700</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="inlineStr">
-        <is>
-          <t>18/09/2025</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Girasol Confitero x 20 kg.</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="n">
-        <v>15900</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="inlineStr">
-        <is>
-          <t>18/09/2025</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Royal Canin Hepatic x 1,5 kg.</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="n">
-        <v>21800</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="inlineStr">
-        <is>
-          <t>18/09/2025</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>Cadena Atar N.º 17</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="n">
-        <v>5280</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="inlineStr">
-        <is>
-          <t>18/09/2025</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Alfombras Paños Max</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="inlineStr">
-        <is>
-          <t>18/09/2025</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Maiz Roto Fino x 24 kg.</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="n">
-        <v>12100</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="inlineStr">
-        <is>
-          <t>18/09/2025</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>Abrigo Fantasia N° 5</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="n">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="inlineStr">
-        <is>
-          <t>18/09/2025</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>Nutribon Razas Pequeñas x 20 kg.</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="n">
-        <v>33900</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="inlineStr">
-        <is>
-          <t>18/09/2025</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>Comedero Metal N° 4 - 30 cm.</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="n">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="inlineStr">
-        <is>
-          <t>18/09/2025</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Collar Cuero N° 6</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="n">
-        <v>13700</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="inlineStr">
-        <is>
-          <t>19/09/2025</t>
-        </is>
-      </c>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>Antiparasitario Vermican Gotas</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="inlineStr">
-        <is>
-          <t>19/09/2025</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Antiparasitario Vermican Gotas</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="inlineStr">
-        <is>
-          <t>19/09/2025</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>Abrigo Poleritas N° 4</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="n">
-        <v>13090</v>
+        <v>77700</v>
       </c>
     </row>
   </sheetData>

--- a/Tablas/AFIP.xlsx
+++ b/Tablas/AFIP.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,466 +471,496 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>08/11/2025</t>
+          <t>28/11/2025</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Fantasia N° 3</t>
+          <t>Raza Cachorro x 15 kg.</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>3900</v>
+        <v>27800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>08/11/2025</t>
+          <t>28/11/2025</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Profesional Vet Gato x 8 kg.</t>
+          <t>Conejo x 25 kg.</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>33500</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>08/11/2025</t>
+          <t>28/11/2025</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Balde Centrifugo Double</t>
+          <t>Abrigo Liso N° 1</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>23900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>08/11/2025</t>
+          <t>28/11/2025</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Correa x 10 mts.</t>
+          <t>Nexgard Comprimidos 25-50 kg.</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>9000</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>08/11/2025</t>
+          <t>28/11/2025</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Aguarras x 1 lt.</t>
+          <t>Dr. Perrot x 15 kg.</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>1900</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>08/11/2025</t>
+          <t>28/11/2025</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Old Prince Premium Gato x 7,5 kg.</t>
+          <t>Chacal x 22 kg.</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>30300</v>
+        <v>24100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>08/11/2025</t>
+          <t>28/11/2025</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Poleritas N° 4</t>
+          <t>Canasto Rectangular c/ Tapa La Porteña</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>13000</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>08/11/2025</t>
+          <t>28/11/2025</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Huellitas N° 9</t>
+          <t>Nutricare x 20 kg.</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>5700</v>
+        <v>41300</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>08/11/2025</t>
+          <t>29/11/2025</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Polar Soft Liso N° 10</t>
+          <t>Abrigo Polar Soft Fantasia N° 9</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>8000</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>08/11/2025</t>
+          <t>29/11/2025</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Infinity Gato x 10 kg.</t>
+          <t>Cat Chow Gatitos x 8 kg.</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>25500</v>
+        <v>48510</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>08/11/2025</t>
+          <t>29/11/2025</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Patriota Gato x 15 kg.</t>
+          <t>Abrigo Polar Soft Fantasia Nº 2</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>24100</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>29/11/2025</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Royal Canin Mini Puppy x 3 kg.</t>
+          <t>Abrigo Fantasia N° 6</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>37700</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>29/11/2025</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Sabrositos Cachorro x 18 kg.</t>
+          <t>Bolso Fantasia c/ Red Chico T° 2</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>30000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>29/11/2025</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Agility</t>
+          <t>Alguicida Clorotec x 1 lt.</t>
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v>3100</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>29/11/2025</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dippi x 20 kg.</t>
+          <t>Camperita Frisa Gap T° 8</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>29260</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>30/11/2025</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Curabichera Mustad Plata x 440 cc.</t>
+          <t>Bozal Cuero N° 2</t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>7600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>30/11/2025</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Matelasse N° 3</t>
+          <t>9 Lives Gatitos x 8 kg.</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>4700</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>30/11/2025</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Polar Animado N° 1</t>
+          <t>Campera Frisa Especial Adidog T° 4</t>
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>4400</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>30/11/2025</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Comedero Metal N° 4 - 30 cm.</t>
+          <t>Basken Comprimidos Gigantes x 3 u.</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>9800</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>30/11/2025</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Bozal Cuero N° 1</t>
+          <t>Arroz x 30 kg.</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
-        <v>8200</v>
+        <v>29300</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>30/11/2025</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Old Prince Gatitos x 7,5 kg.</t>
+          <t>Can Club x 15 kg.</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>35400</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>01/12/2025</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Liso N° 0</t>
+          <t>Abrigo Polar Animado N° 8</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>1700</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>01/12/2025</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Collar Cuero N° 7</t>
+          <t>Aerosol Babs Garrapaticida</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>14300</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>01/12/2025</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>DogPro Cachorro x 8 kg.</t>
+          <t>Bozal Canasta N° 7</t>
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>30690</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>01/12/2025</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Matelasse N° 5</t>
+          <t>Arnes Cazador T° XXL</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
-        <v>5600</v>
+        <v>13700</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>01/12/2025</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Polar Soft Fantasia Nº 1</t>
+          <t>Maintenance x 15 kg.</t>
         </is>
       </c>
       <c r="C27" s="3" t="n">
-        <v>3000</v>
+        <v>20200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>01/12/2025</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Alfombras Paños Max</t>
+          <t>Abrigo Polar Soft Fantasia Nº 1</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>01/12/2025</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Abrigo Fantasia N° 8</t>
+          <t>Profesional Vet Light x 15 kg.</t>
         </is>
       </c>
       <c r="C29" s="3" t="n">
-        <v>5800</v>
+        <v>53300</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>01/12/2025</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Pro Plan Cachorro Razas Pequeñas x 3 kg.</t>
+          <t>CatPro x 7,5 kg.</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>40800</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>01/12/2025</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Aca No Aerosol x 440 cc.</t>
+          <t>Abrigo Polar Animado N° 1</t>
         </is>
       </c>
       <c r="C31" s="3" t="n">
-        <v>15000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>01/12/2025</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>CatPro Urinary x 15 kg.</t>
+          <t>Abrigo Liso N° 9</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
-        <v>77700</v>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>02/12/2025</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Bebe x 30 kg.</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>02/12/2025</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Afrechillo Rabacillo x 20 kg.</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>11600</v>
       </c>
     </row>
   </sheetData>
